--- a/kit_part_list.xlsx
+++ b/kit_part_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D46513-F310-4F5F-BAAE-6C922E44CE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA83E9E-1F94-4575-9D9E-5A37D7267FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="770" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22490" yWindow="-90" windowWidth="28800" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>quantity</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Balun</t>
   </si>
   <si>
-    <t>Antenna halves</t>
-  </si>
-  <si>
     <t>Radio Module</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
     <t xml:space="preserve">m2.5x5 button head T8 </t>
   </si>
   <si>
-    <t xml:space="preserve">m2.5x10 pan head T8 </t>
-  </si>
-  <si>
-    <t>m2x22 pan head T6</t>
-  </si>
-  <si>
     <t>m2.5 lock nut</t>
   </si>
   <si>
@@ -186,10 +177,37 @@
     <t>0n0011</t>
   </si>
   <si>
-    <t>RFM98PW</t>
-  </si>
-  <si>
-    <t>0n0012</t>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>RFM98/RFM95</t>
+  </si>
+  <si>
+    <t>m2.5x10 or m2.5x8 T8/T6</t>
+  </si>
+  <si>
+    <t>m2x20 pan head Philips</t>
+  </si>
+  <si>
+    <t>APAN3109</t>
+  </si>
+  <si>
+    <t>KXOB101K08F-TR</t>
+  </si>
+  <si>
+    <t>HHM1589D1</t>
+  </si>
+  <si>
+    <t>COM-11288</t>
+  </si>
+  <si>
+    <t>SS-5GLT</t>
+  </si>
+  <si>
+    <t>D2F-5L3</t>
+  </si>
+  <si>
+    <t>VL6180XV0NR/1</t>
   </si>
 </sst>
 </file>
@@ -232,7 +250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,13 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,19 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -571,24 +587,30 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -596,19 +618,21 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -616,19 +640,21 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -636,19 +662,21 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -656,229 +684,279 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
       </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2">
         <v>4</v>
       </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>5040500591</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>5040500291</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2">
         <v>2</v>
       </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>151320501</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
         <v>34</v>
       </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>151320503</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
         <v>16</v>
       </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>5040510201</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2">
         <v>18</v>
       </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>151321202</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2">
         <v>2</v>
       </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>3245</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2">
         <v>18</v>
       </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>18650</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>1760510000</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1051640001</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4754</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -886,66 +964,71 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>4399</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1048576"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>